--- a/etuff/FileHeadersWC.xlsx
+++ b/etuff/FileHeadersWC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\tagbase\etuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="121">
   <si>
     <t>csv_suffix</t>
   </si>
@@ -923,6 +923,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H95" totalsRowShown="0">
+  <autoFilter ref="A1:H95"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="csv_suffix"/>
+    <tableColumn id="2" name="column_name"/>
+    <tableColumn id="3" name="description"/>
+    <tableColumn id="4" name="no_longer_used"/>
+    <tableColumn id="5" name="dap_version"/>
+    <tableColumn id="6" name="userguide_version"/>
+    <tableColumn id="7" name="date_first_introduced"/>
+    <tableColumn id="8" name="person_first_introduced"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,11 +1207,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,6 +1259,15 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>201903</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1244,6 +1279,15 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>201903</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1255,6 +1299,15 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>201903</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1266,6 +1319,15 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>201903</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1337,6 +1399,15 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>201903</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1408,6 +1479,15 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>201903</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3051,5 +3131,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/etuff/FileHeadersWC.xlsx
+++ b/etuff/FileHeadersWC.xlsx
@@ -30,9 +30,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>no_longer_used</t>
-  </si>
-  <si>
     <t>dap_version</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>This represents whether or not there was a discontinuity at this depth. 1 = discontinuity. 0 = no discontinuity.</t>
+  </si>
+  <si>
+    <t>historical</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
     <tableColumn id="1" name="csv_suffix"/>
     <tableColumn id="2" name="column_name"/>
     <tableColumn id="3" name="description"/>
-    <tableColumn id="4" name="no_longer_used"/>
+    <tableColumn id="4" name="historical"/>
     <tableColumn id="5" name="dap_version"/>
     <tableColumn id="6" name="userguide_version"/>
     <tableColumn id="7" name="date_first_introduced"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,36 +1234,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>201903</v>
@@ -1271,19 +1271,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>201903</v>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>201903</v>
@@ -1311,19 +1311,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>201903</v>
@@ -1331,19 +1331,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>201903</v>
@@ -1351,19 +1351,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>201903</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>201903</v>
@@ -1391,19 +1391,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>201903</v>
@@ -1411,19 +1411,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>201903</v>
@@ -1431,19 +1431,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>201903</v>
@@ -1451,19 +1451,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>201903</v>
@@ -1471,19 +1471,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>201903</v>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>201903</v>
@@ -1511,19 +1511,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>201903</v>
@@ -1531,19 +1531,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>201903</v>
@@ -1551,19 +1551,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17">
         <v>201903</v>
@@ -1571,19 +1571,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>201903</v>
@@ -1591,19 +1591,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>201903</v>
@@ -1611,19 +1611,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>201903</v>
@@ -1631,19 +1631,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>201903</v>
@@ -1651,19 +1651,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>201903</v>
@@ -1671,19 +1671,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>201903</v>
@@ -1691,19 +1691,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>201903</v>
@@ -1711,19 +1711,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25">
         <v>201903</v>
@@ -1731,19 +1731,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>201903</v>
@@ -1751,19 +1751,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <v>201903</v>
@@ -1771,19 +1771,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>201903</v>
@@ -1791,19 +1791,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>201903</v>
@@ -1811,19 +1811,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>201903</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>201903</v>
@@ -1851,19 +1851,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>201903</v>
@@ -1871,19 +1871,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>201903</v>
@@ -1891,19 +1891,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>201903</v>
@@ -1911,19 +1911,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>201903</v>
@@ -1931,19 +1931,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36">
         <v>201903</v>
@@ -1951,19 +1951,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37">
         <v>201903</v>
@@ -1971,19 +1971,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38">
         <v>201903</v>
@@ -1991,19 +1991,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>201903</v>
@@ -2011,19 +2011,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>201903</v>
@@ -2031,19 +2031,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>201903</v>
@@ -2051,19 +2051,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>201903</v>
@@ -2071,19 +2071,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>201903</v>
@@ -2091,19 +2091,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>201903</v>
@@ -2111,19 +2111,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>201903</v>
@@ -2131,19 +2131,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46">
         <v>201903</v>
@@ -2151,19 +2151,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>201903</v>
@@ -2171,19 +2171,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>201903</v>
@@ -2191,19 +2191,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49">
         <v>201903</v>
@@ -2211,19 +2211,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>201903</v>
@@ -2231,19 +2231,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>201903</v>
@@ -2251,19 +2251,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <v>201903</v>
@@ -2271,19 +2271,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53">
         <v>201903</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54">
         <v>201903</v>
@@ -2311,19 +2311,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>201903</v>
@@ -2331,19 +2331,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <v>201903</v>
@@ -2351,19 +2351,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57">
         <v>201903</v>
@@ -2371,19 +2371,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F58">
         <v>201903</v>
@@ -2391,19 +2391,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59">
         <v>201903</v>
@@ -2411,19 +2411,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <v>201903</v>
@@ -2431,19 +2431,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61">
         <v>201903</v>
@@ -2451,19 +2451,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62">
         <v>201903</v>
@@ -2471,19 +2471,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F63">
         <v>201903</v>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F64">
         <v>201903</v>
@@ -2511,19 +2511,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65">
         <v>201903</v>
@@ -2531,19 +2531,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66">
         <v>201903</v>
@@ -2551,19 +2551,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67">
         <v>201903</v>
@@ -2571,19 +2571,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F68">
         <v>201903</v>
@@ -2591,19 +2591,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <v>201903</v>
@@ -2611,19 +2611,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F70">
         <v>201903</v>
@@ -2631,19 +2631,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71">
         <v>201903</v>
@@ -2651,19 +2651,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F72">
         <v>201903</v>
@@ -2671,19 +2671,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F73">
         <v>201903</v>
@@ -2691,19 +2691,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F74">
         <v>201903</v>
@@ -2711,19 +2711,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F75">
         <v>201903</v>
@@ -2731,19 +2731,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F76">
         <v>201903</v>
@@ -2751,19 +2751,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77">
         <v>201903</v>
@@ -2771,19 +2771,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F78">
         <v>201903</v>
@@ -2791,19 +2791,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F79">
         <v>201903</v>
@@ -2811,19 +2811,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F80">
         <v>201903</v>
@@ -2831,19 +2831,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F81">
         <v>201903</v>
@@ -2851,19 +2851,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F82">
         <v>201903</v>
@@ -2871,19 +2871,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F83">
         <v>201903</v>
@@ -2891,19 +2891,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F84">
         <v>201903</v>
@@ -2911,19 +2911,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F85">
         <v>201903</v>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F86">
         <v>201903</v>
@@ -2951,19 +2951,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F87">
         <v>201903</v>
@@ -2971,19 +2971,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88">
         <v>201903</v>
@@ -2991,19 +2991,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F89">
         <v>201903</v>
@@ -3011,19 +3011,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F90">
         <v>201903</v>
@@ -3031,19 +3031,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F91">
         <v>201903</v>
@@ -3051,19 +3051,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F92">
         <v>201903</v>
@@ -3071,19 +3071,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F93">
         <v>201903</v>
@@ -3091,19 +3091,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F94">
         <v>201903</v>
@@ -3111,19 +3111,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F95">
         <v>201903</v>
